--- a/medicine/Handicap/Patricia_Howlin/Patricia_Howlin.xlsx
+++ b/medicine/Handicap/Patricia_Howlin/Patricia_Howlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patricia Howlin, née le 8 octobre 1946, est professeure de psychologie de l'enfant à l'Institut de psychiatrie de Londres. Ses principaux travaux de recherche portent sur l'autisme et les troubles envahissants du développement, y compris le syndrome de Williams, les troubles développementaux du langage et le syndrome de l'X fragile[1],[2],[3].
-Howlin est membre de la British Psychological Society[4]. Elle a été présidente de l'Association britannique de psychologie et de psychiatrie, et de la Société pour l'Étude des phénotypes comportementaux. Elle est fondatrice et rédactrice en chef de la revue Autism[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patricia Howlin, née le 8 octobre 1946, est professeure de psychologie de l'enfant à l'Institut de psychiatrie de Londres. Ses principaux travaux de recherche portent sur l'autisme et les troubles envahissants du développement, y compris le syndrome de Williams, les troubles développementaux du langage et le syndrome de l'X fragile.
+Howlin est membre de la British Psychological Society. Elle a été présidente de l'Association britannique de psychologie et de psychiatrie, et de la Société pour l'Étude des phénotypes comportementaux. Elle est fondatrice et rédactrice en chef de la revue Autism.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Patricia Howlin, Autism and Asperger syndrome : preparing for adulthood, Routledge, 2004 (ISBN 978-0-415-30968-4)
 Howlin Patricia, Goode Susan, Hutton Jane, Rutter Michael, Goode Susan, Goode Susan, Goode Susan, Goode Susan, Goode Susan et Goode Susan, « Adult outcome for children with autism », Journal of Child Psychology and Psychiatry, vol. 45, no 2,‎ 2004, p. 212–229 (PMID 14982237, DOI 10.1111/j.1469-7610.2004.00215.x)
